--- a/LF/PreTAS/Senegal/septembre 2021/sn_lf_pretas_3_fts_result_202109.xlsx
+++ b/LF/PreTAS/Senegal/septembre 2021/sn_lf_pretas_3_fts_result_202109.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\aout 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\septembre 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB79CA3-782E-4DB5-9CF1-4D1FCA4EAC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3A77B-C28A-426E-B1C7-61B4D5EF1E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13" yWindow="13" windowWidth="25587" windowHeight="13787" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -799,10 +799,10 @@
     <t>region_list = ${d_region}</t>
   </si>
   <si>
-    <t>(Août 2021) 3. Pre-TAS FL Résultat FTS</t>
-  </si>
-  <si>
-    <t>bj_lf_pretas_3_fts_result_202108</t>
+    <t>bj_lf_pretas_3_fts_result_202109</t>
+  </si>
+  <si>
+    <t>(Septembre 2021) 3. Pre-TAS FL Résultat FTS</t>
   </si>
 </sst>
 </file>
@@ -4822,7 +4822,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -4848,10 +4848,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
         <v>252</v>
-      </c>
-      <c r="B2" t="s">
-        <v>253</v>
       </c>
       <c r="C2">
         <v>20210722</v>

--- a/LF/PreTAS/Senegal/septembre 2021/sn_lf_pretas_3_fts_result_202109.xlsx
+++ b/LF/PreTAS/Senegal/septembre 2021/sn_lf_pretas_3_fts_result_202109.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\septembre 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3A77B-C28A-426E-B1C7-61B4D5EF1E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154A20BE-EC5C-421B-B31E-E37FD8914D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13" yWindow="13" windowWidth="25587" windowHeight="13787" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="244">
   <si>
     <t>form_title</t>
   </si>
@@ -745,45 +745,15 @@
     <t>region_list</t>
   </si>
   <si>
-    <t>Diourbel</t>
-  </si>
-  <si>
-    <t>Fatick</t>
-  </si>
-  <si>
-    <t>Kaolack</t>
-  </si>
-  <si>
-    <t>Kédougou</t>
-  </si>
-  <si>
-    <t>Kolda</t>
-  </si>
-  <si>
     <t>Louga</t>
   </si>
   <si>
     <t>Saint Louis</t>
   </si>
   <si>
-    <t>Tambacounda</t>
-  </si>
-  <si>
     <t>Thiès</t>
   </si>
   <si>
-    <t>Allada</t>
-  </si>
-  <si>
-    <t>Bonou</t>
-  </si>
-  <si>
-    <t>Adja-Ouere</t>
-  </si>
-  <si>
-    <t>Agbangnizoun</t>
-  </si>
-  <si>
     <t>select_one region_list</t>
   </si>
   <si>
@@ -799,10 +769,10 @@
     <t>region_list = ${d_region}</t>
   </si>
   <si>
-    <t>bj_lf_pretas_3_fts_result_202109</t>
-  </si>
-  <si>
-    <t>(Septembre 2021) 3. Pre-TAS FL Résultat FTS</t>
+    <t>bj_lf_pretas_3_fts_result_202109_v2</t>
+  </si>
+  <si>
+    <t>(Septembre 2021) 3. Pre-TAS FL Résultat FTS V2</t>
   </si>
 </sst>
 </file>
@@ -875,7 +845,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,6 +868,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
         <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1076,9 +1052,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,6 +1076,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1513,32 +1489,32 @@
       <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="53" t="s">
+      <c r="A3" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
@@ -1566,8 +1542,8 @@
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
-      <c r="P4" s="56" t="s">
-        <v>251</v>
+      <c r="P4" s="55" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2231,11 +2207,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:G147"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -2478,7 +2454,7 @@
       <c r="A17" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="56" t="s">
         <v>234</v>
       </c>
       <c r="C17" s="43" t="s">
@@ -2495,7 +2471,7 @@
       <c r="A18" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="56" t="s">
         <v>235</v>
       </c>
       <c r="C18" s="43" t="s">
@@ -2512,612 +2488,621 @@
       <c r="A19" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>142</v>
+      <c r="B19" s="56" t="s">
+        <v>236</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>236</v>
-      </c>
+      <c r="A20" s="38"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="38"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>237</v>
+        <v>26</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>154</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>238</v>
+        <v>26</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>155</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>239</v>
+        <v>26</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>156</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>240</v>
+        <v>26</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>157</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>241</v>
-      </c>
+      <c r="A25" s="38"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="38"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="38" t="s">
-        <v>233</v>
+        <v>126</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="E26" s="38"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="38" t="s">
-        <v>233</v>
+        <v>126</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E27" s="38"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="38"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
+      <c r="A28" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>164</v>
+      </c>
       <c r="E28" s="38"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="29" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29"/>
     </row>
     <row r="30" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30"/>
     </row>
     <row r="31" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31"/>
     </row>
     <row r="32" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32"/>
     </row>
     <row r="33" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33"/>
     </row>
     <row r="34" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="38"/>
+      <c r="F34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34"/>
     </row>
     <row r="35" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="F35"/>
+        <v>171</v>
+      </c>
+      <c r="E35" s="38"/>
+      <c r="F35" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F36"/>
+        <v>172</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="F36" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37"/>
+        <v>173</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="F38"/>
+        <v>174</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39"/>
+        <v>175</v>
+      </c>
+      <c r="E39" s="38"/>
+      <c r="F39" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="F40"/>
+        <v>176</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="F40" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41"/>
+        <v>177</v>
+      </c>
+      <c r="E41" s="38"/>
+      <c r="F41" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42"/>
+        <v>178</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="F43"/>
+        <v>180</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>242</v>
+        <v>179</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>242</v>
+        <v>181</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>239</v>
+        <v>182</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>237</v>
+        <v>183</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>235</v>
+        <v>184</v>
+      </c>
+      <c r="E48" s="38"/>
+      <c r="F48" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F49" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="E49" s="38"/>
+      <c r="F49" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="F50" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="E50" s="45"/>
+      <c r="F50" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="38" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F51" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="E51" s="45"/>
+      <c r="F51" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="38"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="1"/>
+      <c r="A52" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="45"/>
+      <c r="F52" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="38" t="s">
         <v>126</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="1" t="s">
-        <v>150</v>
+        <v>189</v>
+      </c>
+      <c r="E53" s="45"/>
+      <c r="F53" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3125,17 +3110,17 @@
         <v>126</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="E54" s="38"/>
-      <c r="F54" s="1" t="s">
-        <v>155</v>
+        <v>190</v>
+      </c>
+      <c r="E54" s="45"/>
+      <c r="F54" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3143,17 +3128,17 @@
         <v>126</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="1" t="s">
-        <v>150</v>
+        <v>191</v>
+      </c>
+      <c r="E55" s="45"/>
+      <c r="F55" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3161,17 +3146,17 @@
         <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="E56" s="38"/>
-      <c r="F56" s="1" t="s">
-        <v>148</v>
+        <v>192</v>
+      </c>
+      <c r="E56" s="45"/>
+      <c r="F56" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3179,17 +3164,17 @@
         <v>126</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="1" t="s">
-        <v>160</v>
+        <v>232</v>
+      </c>
+      <c r="E57" s="45"/>
+      <c r="F57" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3197,17 +3182,17 @@
         <v>126</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="1" t="s">
-        <v>143</v>
+        <v>193</v>
+      </c>
+      <c r="E58" s="45"/>
+      <c r="F58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3215,17 +3200,17 @@
         <v>126</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="E59" s="38"/>
-      <c r="F59" s="1" t="s">
-        <v>159</v>
+        <v>194</v>
+      </c>
+      <c r="E59" s="45"/>
+      <c r="F59" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3233,17 +3218,17 @@
         <v>126</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="1" t="s">
-        <v>161</v>
+        <v>195</v>
+      </c>
+      <c r="E60" s="45"/>
+      <c r="F60" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3251,17 +3236,17 @@
         <v>126</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="E61" s="38"/>
-      <c r="F61" s="1" t="s">
-        <v>142</v>
+        <v>196</v>
+      </c>
+      <c r="E61" s="45"/>
+      <c r="F61" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3269,17 +3254,17 @@
         <v>126</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" s="38"/>
-      <c r="F62" s="1" t="s">
-        <v>146</v>
+        <v>197</v>
+      </c>
+      <c r="E62" s="45"/>
+      <c r="F62" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3287,17 +3272,17 @@
         <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="E63" s="38"/>
-      <c r="F63" s="1" t="s">
-        <v>149</v>
+        <v>198</v>
+      </c>
+      <c r="E63" s="45"/>
+      <c r="F63" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3305,672 +3290,672 @@
         <v>126</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" s="45"/>
+      <c r="F64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" s="45"/>
+      <c r="F65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="45"/>
+      <c r="F66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="45"/>
+      <c r="F67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" s="45"/>
+      <c r="F68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="45"/>
+      <c r="F69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="E70" s="45"/>
+      <c r="F70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" s="45"/>
+      <c r="F71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" s="45"/>
+      <c r="F72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="38"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="45"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="1">
+        <v>134</v>
+      </c>
+      <c r="C74" s="43">
+        <v>134</v>
+      </c>
+      <c r="D74" s="44">
+        <v>134</v>
+      </c>
+      <c r="E74" s="45"/>
+      <c r="G74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="1">
+        <v>143</v>
+      </c>
+      <c r="C75" s="43">
+        <v>143</v>
+      </c>
+      <c r="D75" s="44">
+        <v>143</v>
+      </c>
+      <c r="E75" s="45"/>
+      <c r="G75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="1">
+        <v>110</v>
+      </c>
+      <c r="C76" s="43">
+        <v>110</v>
+      </c>
+      <c r="D76" s="44">
+        <v>110</v>
+      </c>
+      <c r="E76" s="45"/>
+      <c r="G76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="1">
+        <v>135</v>
+      </c>
+      <c r="C77" s="43">
+        <v>135</v>
+      </c>
+      <c r="D77" s="44">
+        <v>135</v>
+      </c>
+      <c r="E77" s="45"/>
+      <c r="G77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="1">
+        <v>122</v>
+      </c>
+      <c r="C78" s="43">
+        <v>122</v>
+      </c>
+      <c r="D78" s="44">
+        <v>122</v>
+      </c>
+      <c r="E78" s="45"/>
+      <c r="G78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="1">
+        <v>128</v>
+      </c>
+      <c r="C79" s="43">
+        <v>128</v>
+      </c>
+      <c r="D79" s="44">
+        <v>128</v>
+      </c>
+      <c r="E79" s="45"/>
+      <c r="G79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="1">
+        <v>130</v>
+      </c>
+      <c r="C80" s="43">
+        <v>130</v>
+      </c>
+      <c r="D80" s="44">
+        <v>130</v>
+      </c>
+      <c r="E80" s="45"/>
+      <c r="G80" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="1">
+        <v>125</v>
+      </c>
+      <c r="C81" s="43">
+        <v>125</v>
+      </c>
+      <c r="D81" s="44">
+        <v>125</v>
+      </c>
+      <c r="E81" s="45"/>
+      <c r="G81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="1">
+        <v>109</v>
+      </c>
+      <c r="C82" s="43">
+        <v>109</v>
+      </c>
+      <c r="D82" s="44">
+        <v>109</v>
+      </c>
+      <c r="E82" s="45"/>
+      <c r="G82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="1">
+        <v>141</v>
+      </c>
+      <c r="C83" s="43">
+        <v>141</v>
+      </c>
+      <c r="D83" s="44">
+        <v>141</v>
+      </c>
+      <c r="E83" s="45"/>
+      <c r="G83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="1">
+        <v>142</v>
+      </c>
+      <c r="C84" s="43">
+        <v>142</v>
+      </c>
+      <c r="D84" s="44">
+        <v>142</v>
+      </c>
+      <c r="E84" s="45"/>
+      <c r="G84" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="1">
+        <v>132</v>
+      </c>
+      <c r="C85" s="43">
+        <v>132</v>
+      </c>
+      <c r="D85" s="44">
+        <v>132</v>
+      </c>
+      <c r="E85" s="45"/>
+      <c r="G85" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="E64" s="38"/>
-      <c r="F64" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="1">
+        <v>144</v>
+      </c>
+      <c r="C86" s="43">
+        <v>144</v>
+      </c>
+      <c r="D86" s="44">
+        <v>144</v>
+      </c>
+      <c r="E86" s="45"/>
+      <c r="G86" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="E65" s="38"/>
-      <c r="F65" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="1">
+        <v>112</v>
+      </c>
+      <c r="C87" s="43">
+        <v>112</v>
+      </c>
+      <c r="D87" s="44">
+        <v>112</v>
+      </c>
+      <c r="E87" s="45"/>
+      <c r="G87" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="D66" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="E66" s="38"/>
-      <c r="F66" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="1">
+        <v>140</v>
+      </c>
+      <c r="C88" s="43">
+        <v>140</v>
+      </c>
+      <c r="D88" s="44">
+        <v>140</v>
+      </c>
+      <c r="E88" s="45"/>
+      <c r="G88" t="s">
         <v>176</v>
       </c>
-      <c r="C67" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="D67" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="E67" s="38"/>
-      <c r="F67" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" s="1">
+        <v>116</v>
+      </c>
+      <c r="C89" s="43">
+        <v>116</v>
+      </c>
+      <c r="D89" s="44">
+        <v>116</v>
+      </c>
+      <c r="E89" s="45"/>
+      <c r="G89" t="s">
         <v>177</v>
       </c>
-      <c r="C68" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="E68" s="38"/>
-      <c r="F68" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="1">
+        <v>131</v>
+      </c>
+      <c r="C90" s="43">
+        <v>131</v>
+      </c>
+      <c r="D90" s="44">
+        <v>131</v>
+      </c>
+      <c r="E90" s="45"/>
+      <c r="G90" t="s">
         <v>178</v>
       </c>
-      <c r="C69" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D69" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" s="38"/>
-      <c r="F69" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="1">
+        <v>126</v>
+      </c>
+      <c r="C91" s="43">
+        <v>126</v>
+      </c>
+      <c r="D91" s="44">
+        <v>126</v>
+      </c>
+      <c r="E91" s="45"/>
+      <c r="G91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="1">
+        <v>136</v>
+      </c>
+      <c r="C92" s="43">
+        <v>136</v>
+      </c>
+      <c r="D92" s="44">
+        <v>136</v>
+      </c>
+      <c r="E92" s="45"/>
+      <c r="G92" t="s">
         <v>180</v>
       </c>
-      <c r="C70" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="D70" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" s="38"/>
-      <c r="F70" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="D71" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="E71" s="38"/>
-      <c r="F71" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="1">
+        <v>146</v>
+      </c>
+      <c r="C93" s="43">
+        <v>146</v>
+      </c>
+      <c r="D93" s="44">
+        <v>146</v>
+      </c>
+      <c r="E93" s="45"/>
+      <c r="G93" t="s">
         <v>181</v>
       </c>
-      <c r="C72" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="E72" s="38"/>
-      <c r="F72" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="1">
+        <v>137</v>
+      </c>
+      <c r="C94" s="43">
+        <v>137</v>
+      </c>
+      <c r="D94" s="44">
+        <v>137</v>
+      </c>
+      <c r="E94" s="45"/>
+      <c r="G94" t="s">
         <v>182</v>
       </c>
-      <c r="C73" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D73" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="38"/>
-      <c r="F73" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="1" t="s">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="1">
+        <v>120</v>
+      </c>
+      <c r="C95" s="43">
+        <v>120</v>
+      </c>
+      <c r="D95" s="44">
+        <v>120</v>
+      </c>
+      <c r="E95" s="45"/>
+      <c r="G95" t="s">
         <v>183</v>
       </c>
-      <c r="C74" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D74" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="E74" s="38"/>
-      <c r="F74" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="1" t="s">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="1">
+        <v>148</v>
+      </c>
+      <c r="C96" s="43">
+        <v>148</v>
+      </c>
+      <c r="D96" s="44">
+        <v>148</v>
+      </c>
+      <c r="E96" s="45"/>
+      <c r="G96" t="s">
         <v>184</v>
-      </c>
-      <c r="C75" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D75" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" s="38"/>
-      <c r="F75" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E76" s="38"/>
-      <c r="F76" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D77" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="E77" s="46"/>
-      <c r="F77" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C78" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D78" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="E78" s="46"/>
-      <c r="F78" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="D79" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="E79" s="46"/>
-      <c r="F79" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C80" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="D80" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="E80" s="46"/>
-      <c r="F80" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C81" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D81" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="E81" s="46"/>
-      <c r="F81" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D82" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="E82" s="46"/>
-      <c r="F82" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C83" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="D83" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="E83" s="46"/>
-      <c r="F83" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C84" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="D84" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E84" s="46"/>
-      <c r="F84" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="D85" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="E85" s="46"/>
-      <c r="F85" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C86" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="E86" s="46"/>
-      <c r="F86" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="D87" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="E87" s="46"/>
-      <c r="F87" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C88" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="D88" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="E88" s="46"/>
-      <c r="F88" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C89" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="D89" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="E89" s="46"/>
-      <c r="F89" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C90" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D90" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="E90" s="46"/>
-      <c r="F90" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C91" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="D91" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="E91" s="46"/>
-      <c r="F91" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="D92" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="E92" s="46"/>
-      <c r="F92" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C93" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D93" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="E93" s="46"/>
-      <c r="F93" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C94" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="D94" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="E94" s="46"/>
-      <c r="F94" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C95" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="D95" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="E95" s="46"/>
-      <c r="F95" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C96" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="D96" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="E96" s="46"/>
-      <c r="F96" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="D97" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="E97" s="46"/>
-      <c r="F97" t="s">
-        <v>161</v>
+        <v>127</v>
+      </c>
+      <c r="B97" s="1">
+        <v>147</v>
+      </c>
+      <c r="C97" s="43">
+        <v>147</v>
+      </c>
+      <c r="D97" s="44">
+        <v>147</v>
+      </c>
+      <c r="E97" s="45"/>
+      <c r="G97" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D98" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="E98" s="46"/>
-      <c r="F98" t="s">
-        <v>152</v>
+        <v>127</v>
+      </c>
+      <c r="B98" s="1">
+        <v>127</v>
+      </c>
+      <c r="C98" s="43">
+        <v>127</v>
+      </c>
+      <c r="D98" s="44">
+        <v>127</v>
+      </c>
+      <c r="E98" s="45"/>
+      <c r="G98" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C99" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="D99" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="E99" s="46"/>
-      <c r="F99" t="s">
-        <v>149</v>
+        <v>127</v>
+      </c>
+      <c r="B99" s="1">
+        <v>129</v>
+      </c>
+      <c r="C99" s="43">
+        <v>129</v>
+      </c>
+      <c r="D99" s="44">
+        <v>129</v>
+      </c>
+      <c r="E99" s="45"/>
+      <c r="G99" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="38"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="46"/>
+      <c r="A100" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="1">
+        <v>139</v>
+      </c>
+      <c r="C100" s="43">
+        <v>139</v>
+      </c>
+      <c r="D100" s="44">
+        <v>139</v>
+      </c>
+      <c r="E100" s="45"/>
+      <c r="G100" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="38" t="s">
         <v>127</v>
       </c>
       <c r="B101" s="1">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C101" s="43">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D101" s="44">
-        <v>134</v>
-      </c>
-      <c r="E101" s="46"/>
+        <v>138</v>
+      </c>
+      <c r="E101" s="45"/>
       <c r="G101" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3978,17 +3963,17 @@
         <v>127</v>
       </c>
       <c r="B102" s="1">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C102" s="43">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D102" s="44">
-        <v>143</v>
-      </c>
-      <c r="E102" s="46"/>
+        <v>124</v>
+      </c>
+      <c r="E102" s="45"/>
       <c r="G102" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3996,17 +3981,17 @@
         <v>127</v>
       </c>
       <c r="B103" s="1">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C103" s="43">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="D103" s="44">
-        <v>110</v>
-      </c>
-      <c r="E103" s="46"/>
+        <v>145</v>
+      </c>
+      <c r="E103" s="45"/>
       <c r="G103" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4014,804 +3999,303 @@
         <v>127</v>
       </c>
       <c r="B104" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C104" s="43">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D104" s="44">
-        <v>135</v>
-      </c>
-      <c r="E104" s="46"/>
+        <v>133</v>
+      </c>
+      <c r="E104" s="45"/>
       <c r="G104" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B105" s="1">
-        <v>122</v>
-      </c>
-      <c r="C105" s="43">
-        <v>122</v>
-      </c>
-      <c r="D105" s="44">
-        <v>122</v>
+      <c r="B105" s="4">
+        <v>113</v>
+      </c>
+      <c r="C105" s="47">
+        <v>113</v>
+      </c>
+      <c r="D105" s="48">
+        <v>113</v>
       </c>
       <c r="E105" s="46"/>
       <c r="G105" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B106" s="1">
-        <v>128</v>
-      </c>
-      <c r="C106" s="43">
-        <v>128</v>
-      </c>
-      <c r="D106" s="44">
-        <v>128</v>
+      <c r="B106" s="4">
+        <v>115</v>
+      </c>
+      <c r="C106" s="47">
+        <v>115</v>
+      </c>
+      <c r="D106" s="48">
+        <v>115</v>
       </c>
       <c r="E106" s="46"/>
       <c r="G106" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="1">
-        <v>130</v>
-      </c>
-      <c r="C107" s="43">
-        <v>130</v>
-      </c>
-      <c r="D107" s="44">
-        <v>130</v>
+      <c r="B107" s="4">
+        <v>117</v>
+      </c>
+      <c r="C107" s="47">
+        <v>117</v>
+      </c>
+      <c r="D107" s="48">
+        <v>117</v>
       </c>
       <c r="E107" s="46"/>
       <c r="G107" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B108" s="1">
-        <v>125</v>
-      </c>
-      <c r="C108" s="43">
-        <v>125</v>
-      </c>
-      <c r="D108" s="44">
-        <v>125</v>
+      <c r="B108" s="4">
+        <v>105</v>
+      </c>
+      <c r="C108" s="47">
+        <v>105</v>
+      </c>
+      <c r="D108" s="48">
+        <v>105</v>
       </c>
       <c r="E108" s="46"/>
       <c r="G108" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B109" s="1">
-        <v>109</v>
-      </c>
-      <c r="C109" s="43">
-        <v>109</v>
-      </c>
-      <c r="D109" s="44">
-        <v>109</v>
+      <c r="B109" s="4">
+        <v>103</v>
+      </c>
+      <c r="C109" s="47">
+        <v>103</v>
+      </c>
+      <c r="D109" s="48">
+        <v>103</v>
       </c>
       <c r="E109" s="46"/>
       <c r="G109" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B110" s="1">
-        <v>141</v>
+      <c r="B110">
+        <v>123</v>
       </c>
       <c r="C110" s="43">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D110" s="44">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E110" s="46"/>
       <c r="G110" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B111" s="1">
-        <v>142</v>
+      <c r="B111">
+        <v>108</v>
       </c>
       <c r="C111" s="43">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="D111" s="44">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="E111" s="46"/>
       <c r="G111" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B112" s="1">
-        <v>132</v>
+      <c r="B112">
+        <v>119</v>
       </c>
       <c r="C112" s="43">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D112" s="44">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E112" s="46"/>
       <c r="G112" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="1">
-        <v>144</v>
+      <c r="B113">
+        <v>121</v>
       </c>
       <c r="C113" s="43">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D113" s="44">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E113" s="46"/>
       <c r="G113" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="1">
-        <v>112</v>
+      <c r="B114">
+        <v>114</v>
       </c>
       <c r="C114" s="43">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D114" s="44">
-        <v>112</v>
-      </c>
-      <c r="E114" s="46"/>
+        <v>114</v>
+      </c>
       <c r="G114" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B115" s="1">
-        <v>140</v>
+      <c r="B115">
+        <v>107</v>
       </c>
       <c r="C115" s="43">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="D115" s="44">
-        <v>140</v>
-      </c>
-      <c r="E115" s="46"/>
+        <v>107</v>
+      </c>
       <c r="G115" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B116" s="1">
-        <v>116</v>
+      <c r="B116">
+        <v>106</v>
       </c>
       <c r="C116" s="43">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D116" s="44">
-        <v>116</v>
-      </c>
-      <c r="E116" s="46"/>
+        <v>106</v>
+      </c>
       <c r="G116" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B117" s="1">
-        <v>131</v>
+      <c r="B117">
+        <v>111</v>
       </c>
       <c r="C117" s="43">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D117" s="44">
-        <v>131</v>
-      </c>
-      <c r="E117" s="46"/>
+        <v>111</v>
+      </c>
       <c r="G117" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B118" s="1">
-        <v>126</v>
-      </c>
-      <c r="C118" s="43">
-        <v>126</v>
-      </c>
-      <c r="D118" s="44">
-        <v>126</v>
-      </c>
-      <c r="E118" s="46"/>
+      <c r="B118" s="45">
+        <v>101</v>
+      </c>
+      <c r="C118" s="49">
+        <v>101</v>
+      </c>
+      <c r="D118" s="50">
+        <v>101</v>
+      </c>
+      <c r="E118" s="45"/>
       <c r="G118" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B119" s="1">
-        <v>136</v>
-      </c>
-      <c r="C119" s="43">
-        <v>136</v>
-      </c>
-      <c r="D119" s="44">
-        <v>136</v>
-      </c>
-      <c r="E119" s="46"/>
+      <c r="B119" s="45">
+        <v>102</v>
+      </c>
+      <c r="C119" s="49">
+        <v>102</v>
+      </c>
+      <c r="D119" s="50">
+        <v>102</v>
+      </c>
+      <c r="E119" s="45"/>
       <c r="G119" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B120" s="1">
-        <v>146</v>
-      </c>
-      <c r="C120" s="43">
-        <v>146</v>
-      </c>
-      <c r="D120" s="44">
-        <v>146</v>
-      </c>
-      <c r="E120" s="46"/>
+      <c r="B120">
+        <v>118</v>
+      </c>
+      <c r="C120">
+        <v>118</v>
+      </c>
+      <c r="D120">
+        <v>118</v>
+      </c>
       <c r="G120" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B121" s="1">
-        <v>137</v>
-      </c>
-      <c r="C121" s="43">
-        <v>137</v>
-      </c>
-      <c r="D121" s="44">
-        <v>137</v>
-      </c>
-      <c r="E121" s="46"/>
-      <c r="G121" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122" s="1">
-        <v>120</v>
-      </c>
-      <c r="C122" s="43">
-        <v>120</v>
-      </c>
-      <c r="D122" s="44">
-        <v>120</v>
-      </c>
-      <c r="E122" s="46"/>
-      <c r="G122" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B123" s="1">
-        <v>148</v>
-      </c>
-      <c r="C123" s="43">
-        <v>148</v>
-      </c>
-      <c r="D123" s="44">
-        <v>148</v>
-      </c>
-      <c r="E123" s="46"/>
-      <c r="G123" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124" s="1">
-        <v>147</v>
-      </c>
-      <c r="C124" s="43">
-        <v>147</v>
-      </c>
-      <c r="D124" s="44">
-        <v>147</v>
-      </c>
-      <c r="E124" s="46"/>
-      <c r="G124" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B125" s="1">
-        <v>127</v>
-      </c>
-      <c r="C125" s="43">
-        <v>127</v>
-      </c>
-      <c r="D125" s="44">
-        <v>127</v>
-      </c>
-      <c r="E125" s="46"/>
-      <c r="G125" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B126" s="1">
-        <v>129</v>
-      </c>
-      <c r="C126" s="43">
-        <v>129</v>
-      </c>
-      <c r="D126" s="44">
-        <v>129</v>
-      </c>
-      <c r="E126" s="46"/>
-      <c r="G126" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" s="1">
-        <v>139</v>
-      </c>
-      <c r="C127" s="43">
-        <v>139</v>
-      </c>
-      <c r="D127" s="44">
-        <v>139</v>
-      </c>
-      <c r="E127" s="46"/>
-      <c r="G127" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128" s="1">
-        <v>138</v>
-      </c>
-      <c r="C128" s="43">
-        <v>138</v>
-      </c>
-      <c r="D128" s="44">
-        <v>138</v>
-      </c>
-      <c r="E128" s="46"/>
-      <c r="G128" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B129" s="1">
-        <v>124</v>
-      </c>
-      <c r="C129" s="43">
-        <v>124</v>
-      </c>
-      <c r="D129" s="44">
-        <v>124</v>
-      </c>
-      <c r="E129" s="46"/>
-      <c r="G129" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B130" s="1">
-        <v>145</v>
-      </c>
-      <c r="C130" s="43">
-        <v>145</v>
-      </c>
-      <c r="D130" s="44">
-        <v>145</v>
-      </c>
-      <c r="E130" s="46"/>
-      <c r="G130" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B131" s="1">
-        <v>133</v>
-      </c>
-      <c r="C131" s="43">
-        <v>133</v>
-      </c>
-      <c r="D131" s="44">
-        <v>133</v>
-      </c>
-      <c r="E131" s="46"/>
-      <c r="G131" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B132" s="4">
-        <v>113</v>
-      </c>
-      <c r="C132" s="48">
-        <v>113</v>
-      </c>
-      <c r="D132" s="49">
-        <v>113</v>
-      </c>
-      <c r="E132" s="47"/>
-      <c r="G132" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B133" s="4">
-        <v>115</v>
-      </c>
-      <c r="C133" s="48">
-        <v>115</v>
-      </c>
-      <c r="D133" s="49">
-        <v>115</v>
-      </c>
-      <c r="E133" s="47"/>
-      <c r="G133" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B134" s="4">
-        <v>117</v>
-      </c>
-      <c r="C134" s="48">
-        <v>117</v>
-      </c>
-      <c r="D134" s="49">
-        <v>117</v>
-      </c>
-      <c r="E134" s="47"/>
-      <c r="G134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B135" s="4">
-        <v>105</v>
-      </c>
-      <c r="C135" s="48">
-        <v>105</v>
-      </c>
-      <c r="D135" s="49">
-        <v>105</v>
-      </c>
-      <c r="E135" s="47"/>
-      <c r="G135" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B136" s="4">
-        <v>103</v>
-      </c>
-      <c r="C136" s="48">
-        <v>103</v>
-      </c>
-      <c r="D136" s="49">
-        <v>103</v>
-      </c>
-      <c r="E136" s="47"/>
-      <c r="G136" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B137">
-        <v>123</v>
-      </c>
-      <c r="C137" s="43">
-        <v>123</v>
-      </c>
-      <c r="D137" s="44">
-        <v>123</v>
-      </c>
-      <c r="E137" s="47"/>
-      <c r="G137" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B138">
-        <v>108</v>
-      </c>
-      <c r="C138" s="43">
-        <v>108</v>
-      </c>
-      <c r="D138" s="44">
-        <v>108</v>
-      </c>
-      <c r="E138" s="47"/>
-      <c r="G138" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B139">
-        <v>119</v>
-      </c>
-      <c r="C139" s="43">
-        <v>119</v>
-      </c>
-      <c r="D139" s="44">
-        <v>119</v>
-      </c>
-      <c r="E139" s="47"/>
-      <c r="G139" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B140">
-        <v>121</v>
-      </c>
-      <c r="C140" s="43">
-        <v>121</v>
-      </c>
-      <c r="D140" s="44">
-        <v>121</v>
-      </c>
-      <c r="E140" s="47"/>
-      <c r="G140" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B141">
-        <v>114</v>
-      </c>
-      <c r="C141" s="43">
-        <v>114</v>
-      </c>
-      <c r="D141" s="44">
-        <v>114</v>
-      </c>
-      <c r="E141" t="s">
-        <v>243</v>
-      </c>
-      <c r="G141" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B142">
-        <v>107</v>
-      </c>
-      <c r="C142" s="43">
-        <v>107</v>
-      </c>
-      <c r="D142" s="44">
-        <v>107</v>
-      </c>
-      <c r="E142" t="s">
-        <v>244</v>
-      </c>
-      <c r="G142" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B143">
-        <v>106</v>
-      </c>
-      <c r="C143" s="43">
-        <v>106</v>
-      </c>
-      <c r="D143" s="44">
-        <v>106</v>
-      </c>
-      <c r="E143" t="s">
-        <v>245</v>
-      </c>
-      <c r="G143" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B144">
-        <v>111</v>
-      </c>
-      <c r="C144" s="43">
-        <v>111</v>
-      </c>
-      <c r="D144" s="44">
-        <v>111</v>
-      </c>
-      <c r="E144" t="s">
-        <v>246</v>
-      </c>
-      <c r="G144" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B145" s="46">
-        <v>101</v>
-      </c>
-      <c r="C145" s="50">
-        <v>101</v>
-      </c>
-      <c r="D145" s="51">
-        <v>101</v>
-      </c>
-      <c r="E145" s="46"/>
-      <c r="G145" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B146" s="46">
-        <v>102</v>
-      </c>
-      <c r="C146" s="50">
-        <v>102</v>
-      </c>
-      <c r="D146" s="51">
-        <v>102</v>
-      </c>
-      <c r="E146" s="46"/>
-      <c r="G146" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B147">
-        <v>118</v>
-      </c>
-      <c r="C147">
-        <v>118</v>
-      </c>
-      <c r="D147">
-        <v>118</v>
-      </c>
-      <c r="G147" t="s">
         <v>207</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A99:C137">
-    <sortCondition ref="B99:B137"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4821,8 +4305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -4848,10 +4332,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C2">
         <v>20210722</v>
